--- a/result0227.xlsx
+++ b/result0227.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soovin\Desktop\Research_MDP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soovin\Desktop\Research\Research_MDP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MILP" sheetId="1" r:id="rId1"/>
+    <sheet name="Hypercube" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>s=5, s1=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,30 @@
   </si>
   <si>
     <t>P(lost-all)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPERCUBE RESULTS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy used: [1,7,8,13,14] open, send-the-closest-available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file used: MIP_RC_0218.py, Hypercube_RC_0213.py,testSImulation_0219.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file used: Hypercube_RC_0213.py,testHypercube_0213.py,testSImulation_0219.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s=5, s1=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -405,13 +430,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,6 +592,60 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:E44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -827,13 +939,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="26"/>
@@ -843,576 +955,1204 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8" t="s">
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="9" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.66930000000000001</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0.66930000000000001</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.66749999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24">
-        <v>0.2001</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.2001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.20169999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="C9" s="25">
-        <v>6.9199999999999998E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.22E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6.9099999999999995E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="19">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.66749999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="24">
-        <v>2.7699999999999999E-2</v>
+        <v>0.2001</v>
       </c>
       <c r="C10" s="25">
-        <v>2.7699999999999999E-2</v>
+        <v>0.2001</v>
       </c>
       <c r="D10" s="2">
-        <v>2.9600000000000001E-2</v>
+        <v>0.19719999999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>2.76E-2</v>
+        <v>0.20169999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.22E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.9099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B13" s="21">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C13" s="22">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D13" s="6">
         <v>1.35E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="7">
         <v>1.26E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0.33069999999999999</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30">
-        <v>0.3306</v>
-      </c>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="32">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="45">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47">
+        <v>0.3306</v>
+      </c>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="49">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B16" s="24">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C16" s="25">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E16" s="3">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B17" s="41">
         <v>0.5827</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43">
         <v>0.58020000000000005</v>
       </c>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="12">
-        <v>1</v>
-      </c>
-      <c r="B21" s="19">
-        <v>0.67659999999999998</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.67569999999999997</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.66479999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
-        <v>2</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0.2024</v>
-      </c>
-      <c r="C22" s="18">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.1986</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1.89E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
-        <v>3</v>
-      </c>
-      <c r="B23" s="17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C23" s="18">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.7099999999999998E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.66479999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="17">
-        <v>2.8000000000000001E-2</v>
+        <v>0.2024</v>
       </c>
       <c r="C24" s="18">
-        <v>1.52E-2</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>3.0099999999999998E-2</v>
+        <v>0.1986</v>
       </c>
       <c r="E24" s="3">
-        <v>1.49E-2</v>
+        <v>1.89E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
+        <v>3</v>
+      </c>
+      <c r="B25" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="18">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="12">
+        <v>4</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="12">
         <v>5</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B27" s="21">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C27" s="22">
         <v>0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="6">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="28">
-        <v>0.32329999999999998</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30">
-        <v>0.3231</v>
-      </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="32">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="45">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47">
+        <v>0.3231</v>
+      </c>
+      <c r="E28" s="48"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="49">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B30" s="17">
         <v>0.01</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C30" s="18">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D30" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E30" s="3">
         <v>7.4200000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B31" s="41">
         <v>0.58899999999999997</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38">
+      <c r="C31" s="42"/>
+      <c r="D31" s="43">
         <v>0.58620000000000005</v>
       </c>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="40" t="s">
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="32" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8" t="s">
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="9" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="12">
-        <v>1</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.62929999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="12">
-        <v>2</v>
-      </c>
-      <c r="B36" s="17">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="C36" s="18">
-        <v>0.15040000000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.1978</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.1484</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
-        <v>3</v>
-      </c>
-      <c r="B37" s="17">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C37" s="18">
-        <v>2.81E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2.9100000000000001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="B37" s="19">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C37" s="20">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.62929999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="17">
-        <v>2.2100000000000002E-2</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="C38" s="18">
-        <v>0</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="D38" s="1">
-        <v>2.47E-2</v>
+        <v>0.1978</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
+        <v>3</v>
+      </c>
+      <c r="B39" s="17">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2.81E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="12">
+        <v>4</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B41" s="21">
         <v>6.3E-3</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C41" s="22">
         <v>0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D41" s="6">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="28">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="32">
-        <v>0.1042</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="45">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="49">
+        <v>0.1042</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B44" s="17">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C44" s="18">
         <v>0.19270000000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D44" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E44" s="3">
         <v>0.19339999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
+    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B45" s="41">
         <v>0.60329999999999995</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38">
+      <c r="C45" s="42"/>
+      <c r="D45" s="43">
         <v>0.5988</v>
       </c>
-      <c r="E43" s="39"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="40" t="s">
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A44:E44"/>
+  <mergeCells count="23">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.66059999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.1988</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.1988</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0.19420000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="32">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="C12" s="33">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="E12" s="35">
+        <v>7.5300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="12">
+        <v>4</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="C13" s="33">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D13" s="34">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="12">
+        <v>5</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.7899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="45">
+        <v>0.3251</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47">
+        <v>0.32490000000000002</v>
+      </c>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="E17" s="39">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43">
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="12">
+        <v>1</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.66790000000000005</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
+        <v>2</v>
+      </c>
+      <c r="B24" s="32">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.1888</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="12">
+        <v>3</v>
+      </c>
+      <c r="B25" s="32">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="C25" s="33">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="D25" s="34">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="E25" s="35">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="12">
+        <v>4</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D26" s="34">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="12">
+        <v>5</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.23E-2</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1.95E-2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="45">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="E28" s="48"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="49">
+        <v>4.07E-2</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="36">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C30" s="37">
+        <v>6.88E-2</v>
+      </c>
+      <c r="D30" s="38">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="E30" s="39">
+        <v>7.0900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="12">
+        <v>1</v>
+      </c>
+      <c r="B36" s="28">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="C36" s="29">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0.68730000000000002</v>
+      </c>
+      <c r="E36" s="31">
+        <v>0.62590000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="12">
+        <v>2</v>
+      </c>
+      <c r="B37" s="32">
+        <v>0.2016</v>
+      </c>
+      <c r="C37" s="33">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0.15090000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="12">
+        <v>3</v>
+      </c>
+      <c r="B38" s="32">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="C38" s="33">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="D38" s="34">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E38" s="35">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="12">
+        <v>4</v>
+      </c>
+      <c r="B39" s="32">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="C39" s="33">
+        <v>0</v>
+      </c>
+      <c r="D39" s="34">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="12">
+        <v>5</v>
+      </c>
+      <c r="B40" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="45">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="49">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="36">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="C43" s="37">
+        <v>0.18429999999999999</v>
+      </c>
+      <c r="D43" s="38">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E43" s="39">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="E44" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>